--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Downloads\menu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\GitHub\conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{542D2941-B9A2-4AF7-B1BD-B73728535F56}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB08BBEF-3527-42DC-9B26-250ED46CB749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00F1D0C4-98C2-4F0A-A182-CFA9BE991436}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>quechua</t>
   </si>
   <si>
-    <t>español</t>
-  </si>
-  <si>
     <t>mikuy</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>tiyay</t>
+  </si>
+  <si>
+    <t>espanol</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -407,23 +407,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/verbos.xlsx
+++ b/verbos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n320\Documents\GitHub\conjugador\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alejandra Vilchez\Downloads\conjugador\conjugador\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB08BBEF-3527-42DC-9B26-250ED46CB749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B7C64-493F-42F7-801B-7290668F1EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{00F1D0C4-98C2-4F0A-A182-CFA9BE991436}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{00F1D0C4-98C2-4F0A-A182-CFA9BE991436}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>quechua</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>espanol</t>
+  </si>
+  <si>
+    <t>puri</t>
+  </si>
+  <si>
+    <t>caminar</t>
+  </si>
+  <si>
+    <t>tusuy</t>
+  </si>
+  <si>
+    <t>bailar</t>
   </si>
 </sst>
 </file>
@@ -98,9 +110,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -138,7 +150,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -244,7 +256,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -386,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -394,15 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176947B6-954A-419B-AB55-8445EE2E001B}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -418,12 +430,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
